--- a/stock_learning_rnn/hyper_rmses_select_hidden_dims_last.xlsx
+++ b/stock_learning_rnn/hyper_rmses_select_hidden_dims_last.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="370" yWindow="580" windowWidth="18400" windowHeight="8640"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>seq_length</t>
   </si>
@@ -51,34 +50,54 @@
   </si>
   <si>
     <t>[32]</t>
+  </si>
+  <si>
+    <t>sum_error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,26 +106,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -394,20 +442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,127 +475,163 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02868069335818291</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5144081115722656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="n">
+      <c r="D2" s="3">
+        <v>3.1166815509398781E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.50817757844924927</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2+E2</f>
+        <v>0.53934439395864808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.8</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.03138316671053568</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5085669755935669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="n">
+      <c r="D3">
+        <v>3.1383166710535683E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.50856697559356689</v>
+      </c>
+      <c r="F3">
+        <f>D3+E3</f>
+        <v>0.53995014230410254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>3.152791472772757E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.50895638267199195</v>
+      </c>
+      <c r="F4">
+        <f>D4+E4</f>
+        <v>0.54048429739971948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5">
         <v>0.8</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.03063113490740458</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5101246138413748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>3.0631134907404579E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.51012461384137475</v>
+      </c>
+      <c r="F5">
+        <f>D5+E5</f>
+        <v>0.5407557487487793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <v>3.075985920925935E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.51012461384137475</v>
+      </c>
+      <c r="F6">
+        <f>D6+E6</f>
+        <v>0.54088447305063414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.03665653429925442</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.504672904809316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="D7">
+        <v>3.6656534299254417E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.50467290480931604</v>
+      </c>
+      <c r="F7">
+        <f>D7+E7</f>
+        <v>0.54132943910857045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>0.8</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.03152791472772757</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5089563826719919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03116681550939878</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5081775784492493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03075985920925935</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5101246138413748</v>
+      <c r="D8">
+        <v>2.8680693358182911E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.51440811157226563</v>
+      </c>
+      <c r="F8">
+        <f>D8+E8</f>
+        <v>0.54308880493044853</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sortState ref="A2:F8">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>